--- a/data/tareas.xlsx
+++ b/data/tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS JM 2024\TURGAS\06-01-25-jm-cronograma planta mqta\21-04-25-App de Gestión de Turnos, Tareas y Reporte de Avance\estructura_app_gestion_turnos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E7816-78D5-44C1-B504-1AD530737B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AD3DC8-AB79-486F-BC83-14F4618F4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23016" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -295,9 +295,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,9 +348,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -363,6 +359,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -391,23 +404,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -434,7 +430,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>724688</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>320039</xdr:rowOff>
+      <xdr:rowOff>339089</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -484,7 +480,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>724688</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>327659</xdr:rowOff>
+      <xdr:rowOff>339089</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -527,7 +523,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A137D16A-7EB4-44FD-9EB1-DD8B428E4C02}" name="Tabla1" displayName="Tabla1" ref="A1:L24" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A137D16A-7EB4-44FD-9EB1-DD8B428E4C02}" name="Tabla1" displayName="Tabla1" ref="A1:L24" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:L24" xr:uid="{A137D16A-7EB4-44FD-9EB1-DD8B428E4C02}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{B32C5327-F01C-4E68-AB40-19EDE859043A}" name="ID"/>
@@ -536,7 +532,7 @@
     <tableColumn id="4" xr3:uid="{2D7265EB-BA10-42C3-8664-9A188C84B3E6}" name="Descripción"/>
     <tableColumn id="5" xr3:uid="{3E6D1D16-ECEC-4BF4-85FC-9BD882B5940C}" name="Estado"/>
     <tableColumn id="6" xr3:uid="{74BE302B-91BE-404E-AE4C-8A12374E69EA}" name="% Avance"/>
-    <tableColumn id="7" xr3:uid="{B87E5D10-42E3-4A5F-8B31-B91FA64C12E2}" name="Fecha inicio" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B87E5D10-42E3-4A5F-8B31-B91FA64C12E2}" name="Fecha inicio" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{64F94032-0C11-47FF-AD07-D6875A679F76}" name="Fecha fin"/>
     <tableColumn id="9" xr3:uid="{F24A836C-2794-41DE-91DE-9433C0FFA542}" name="Foto_1"/>
     <tableColumn id="10" xr3:uid="{C3D078A9-913A-432F-8C0C-2E147D4D3C1F}" name="Foto_2"/>
@@ -834,47 +830,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -941,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1086,7 +1086,7 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -1269,7 +1269,7 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -1330,7 +1330,7 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -1365,7 +1365,7 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -1426,7 +1426,7 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1443,7 +1443,7 @@
       <c r="G20" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>45757</v>
       </c>
       <c r="I20" t="s">
@@ -1461,7 +1461,7 @@
         <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1525,7 +1525,7 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="L23" t="s">
         <v>19</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>

--- a/data/tareas.xlsx
+++ b/data/tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS JM 2024\TURGAS\06-01-25-jm-cronograma planta mqta\21-04-25-App de Gestión de Turnos, Tareas y Reporte de Avance\estructura_app_gestion_turnos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AD3DC8-AB79-486F-BC83-14F4618F4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924C1AF2-8A78-4396-B145-8738D1E6E7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23016" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23040" yWindow="168" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>45773</v>
+        <v>45762</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>

--- a/data/tareas.xlsx
+++ b/data/tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS JM 2024\TURGAS\06-01-25-jm-cronograma planta mqta\21-04-25-App de Gestión de Turnos, Tareas y Reporte de Avance\estructura_app_gestion_turnos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924C1AF2-8A78-4396-B145-8738D1E6E7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1405706-3D69-4F95-A8E8-04DF2F947083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="168" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -289,13 +289,61 @@
   </si>
   <si>
     <t>Montaje de tubería-sool fan cooler-plt mqta</t>
+  </si>
+  <si>
+    <t>T024</t>
+  </si>
+  <si>
+    <t>Construcción de 2 Spool en tubo inoxidable de 2" para conectar el Gasificador ambiental # 2 al #1 del circuito de la Bomba Reciprocante hacia los generadores y compresores Worthington para el trasvase de las cisternas</t>
+  </si>
+  <si>
+    <t>T025</t>
+  </si>
+  <si>
+    <t>Construcción de línea en tubo A.C. de 1" para conectar la entrada y salida del filtro coalescente con el gas del gasoducto y/o gas caliente de 4a etapa de los compresores Worthington, para el proceso de regeneración de las cisternas con el fin de destaponar las salidas de líquido</t>
+  </si>
+  <si>
+    <t>T026</t>
+  </si>
+  <si>
+    <t>Construcción de líneas en tubo A.C. de 1" para conectar a los tubos de la descarga de 4a etapa de los compresores Worthigton 1 y 2, con el fin de llevar gas caliente hasta el filtro coalescente que se utilizara para inyectarlo a la cisterna durante la regeneración de las mismas</t>
+  </si>
+  <si>
+    <t>T027</t>
+  </si>
+  <si>
+    <t>Construcción de Spool en tubo A.C. de 2" SCH 40, para conectar la línea que lleva el gas de las cisternas hacia los compresores a la altura de la descarga de 2a etapa antes de llegar a los Fancooler y/o succión de 3a. Etapa. Esto con el fin de no presurizar el Scrubber principal de succión.</t>
+  </si>
+  <si>
+    <t>T028</t>
+  </si>
+  <si>
+    <t>TRASNFERENCIA</t>
+  </si>
+  <si>
+    <t>T021 -T028</t>
+  </si>
+  <si>
+    <t>T029</t>
+  </si>
+  <si>
+    <t>T022 -T029</t>
+  </si>
+  <si>
+    <t>T030</t>
+  </si>
+  <si>
+    <t>Vacios plta mqta-MEDICIONES EN EQUIPOS Y TUBERIAS CRTICAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +361,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -348,10 +402,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -364,16 +422,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -523,9 +581,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A137D16A-7EB4-44FD-9EB1-DD8B428E4C02}" name="Tabla1" displayName="Tabla1" ref="A1:L24" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:L24" xr:uid="{A137D16A-7EB4-44FD-9EB1-DD8B428E4C02}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A137D16A-7EB4-44FD-9EB1-DD8B428E4C02}" name="Tabla1" displayName="Tabla1" ref="A1:M32" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:M32" xr:uid="{A137D16A-7EB4-44FD-9EB1-DD8B428E4C02}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{B32C5327-F01C-4E68-AB40-19EDE859043A}" name="ID"/>
     <tableColumn id="2" xr3:uid="{D5F52D3B-E981-49BC-81A8-C2B4C557B5D1}" name="Grupo"/>
     <tableColumn id="3" xr3:uid="{BEC8EBE8-5781-4022-BDFC-8C4904BB3463}" name="Responsable"/>
@@ -538,6 +596,7 @@
     <tableColumn id="10" xr3:uid="{C3D078A9-913A-432F-8C0C-2E147D4D3C1F}" name="Foto_2"/>
     <tableColumn id="11" xr3:uid="{91FA8368-480B-4FC6-863A-FB76FD412533}" name="Foto_3"/>
     <tableColumn id="12" xr3:uid="{5FE499F4-02D5-48F8-B0BB-765320141DCE}" name="Última Actualización"/>
+    <tableColumn id="13" xr3:uid="{BEBAC88A-65F0-445C-8B2E-84DE89C83A6D}" name="TRASNFERENCIA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -828,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -840,7 +899,7 @@
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,8 +936,11 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -907,7 +969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -936,7 +998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -962,7 +1024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -994,7 +1056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1023,7 +1085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1049,7 +1111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1081,7 +1143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1110,7 +1172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1136,7 +1198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1168,7 +1230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1200,7 +1262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1229,7 +1291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1264,7 +1326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1296,7 +1358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1325,7 +1387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1360,7 +1422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1392,7 +1454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1421,7 +1483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -1438,7 +1500,7 @@
         <v>33</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
@@ -1456,7 +1518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -1473,7 +1535,7 @@
         <v>33</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1">
         <v>45762</v>
@@ -1488,7 +1550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -1520,7 +1582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -1537,7 +1599,7 @@
         <v>66</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1">
         <v>45773</v>
@@ -1546,7 +1608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1563,13 +1625,212 @@
         <v>66</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1">
         <v>45773</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45773</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3">
+        <v>45775</v>
+      </c>
+      <c r="M30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45773</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45773</v>
+      </c>
+      <c r="M32" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/tareas.xlsx
+++ b/data/tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS JM 2024\TURGAS\06-01-25-jm-cronograma planta mqta\21-04-25-App de Gestión de Turnos, Tareas y Reporte de Avance\estructura_app_gestion_turnos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D11A9D-70BD-445F-B608-9813C8D8991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F61DE8A-2F26-4751-AF4A-3F8668217058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{333E9848-0393-432F-B733-76AFFF42A1D3}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{333E9848-0393-432F-B733-76AFFF42A1D3}"/>
   </bookViews>
   <sheets>
     <sheet name="tareas" sheetId="1" r:id="rId1"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E8:E9"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H29">
         <v>45775</v>
@@ -2255,7 +2255,7 @@
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H30">
         <v>45774</v>
@@ -2290,7 +2290,7 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H31">
         <v>45774</v>
@@ -2316,7 +2316,7 @@
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
         <v>28</v>
@@ -2357,7 +2357,7 @@
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H33">
         <v>45774</v>

--- a/data/tareas.xlsx
+++ b/data/tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS JM 2024\TURGAS\06-01-25-jm-cronograma planta mqta\21-04-25-App de Gestión de Turnos, Tareas y Reporte de Avance\estructura_app_gestion_turnos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F61DE8A-2F26-4751-AF4A-3F8668217058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40137C6-7B7F-4F11-A59F-DA62D0F636B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{333E9848-0393-432F-B733-76AFFF42A1D3}"/>
   </bookViews>
@@ -1206,10 +1206,13 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1395,7 +1398,7 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -2363,7 +2366,7 @@
         <v>45774</v>
       </c>
       <c r="O33" s="2">
-        <v>45775.063888888893</v>
+        <v>45775.063888888886</v>
       </c>
       <c r="P33" t="s">
         <v>34</v>

--- a/data/tareas.xlsx
+++ b/data/tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS JM 2024\TURGAS\06-01-25-jm-cronograma planta mqta\21-04-25-App de Gestión de Turnos, Tareas y Reporte de Avance\estructura_app_gestion_turnos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40137C6-7B7F-4F11-A59F-DA62D0F636B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED442523-0075-4CDF-A288-A2A5AA9CF9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{333E9848-0393-432F-B733-76AFFF42A1D3}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>Angel Oyuela</t>
   </si>
   <si>
-    <t>RecuperaciÃ³n de Trailer de 3 ejes, EDS Caldas Viejo</t>
-  </si>
-  <si>
     <t>En curso</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>Ultima Actualizacion</t>
+  </si>
+  <si>
+    <t>Recuperacion de Trailer de 3 ejes, EDS Caldas Viejo</t>
   </si>
 </sst>
 </file>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CACD59-3760-4A1B-8CE6-99790B954501}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1246,7 +1246,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -1322,16 +1322,16 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
         <v>45770</v>
@@ -1340,30 +1340,30 @@
         <v>45782</v>
       </c>
       <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
       <c r="O3" s="2">
         <v>45775.063888888893</v>
       </c>
       <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
         <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -1372,7 +1372,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1381,7 +1381,7 @@
         <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2">
         <v>45768</v>
@@ -1390,30 +1390,30 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2">
         <v>45766</v>
@@ -1425,12 +1425,12 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1439,7 +1439,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1448,7 +1448,7 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>45764</v>
@@ -1457,12 +1457,12 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1471,7 +1471,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -1480,7 +1480,7 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2">
         <v>45762</v>
@@ -1489,12 +1489,12 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1503,7 +1503,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -1512,7 +1512,7 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2">
         <v>45760</v>
@@ -1524,21 +1524,21 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -1547,7 +1547,7 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2">
         <v>45758</v>
@@ -1556,21 +1556,21 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1579,7 +1579,7 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2">
         <v>45756</v>
@@ -1588,30 +1588,30 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="2">
         <v>45754</v>
@@ -1623,21 +1623,21 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1646,7 +1646,7 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2">
         <v>45767</v>
@@ -1658,30 +1658,30 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="2">
         <v>45762</v>
@@ -1690,21 +1690,21 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1713,7 +1713,7 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="2">
         <v>45762</v>
@@ -1722,36 +1722,36 @@
         <v>45757</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O14" s="2">
         <v>45775.063888888893</v>
       </c>
       <c r="P14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="2">
         <v>45767</v>
@@ -1763,30 +1763,30 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="2">
         <v>45762</v>
@@ -1795,12 +1795,12 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1809,7 +1809,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1818,7 +1818,7 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="2">
         <v>45762</v>
@@ -1827,36 +1827,36 @@
         <v>45757</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O17" s="2">
         <v>45775.063888888893</v>
       </c>
       <c r="P17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H18" s="2">
         <v>45767</v>
@@ -1868,12 +1868,12 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1882,16 +1882,16 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="2">
         <v>45762</v>
@@ -1900,30 +1900,30 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20">
         <v>45774</v>
@@ -1932,36 +1932,36 @@
         <v>45757</v>
       </c>
       <c r="N20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="2">
         <v>45775.063888888893</v>
       </c>
       <c r="P20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21">
         <v>45762</v>
@@ -1973,30 +1973,30 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H22">
         <v>45773</v>
@@ -2008,12 +2008,12 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -2022,16 +2022,16 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23">
         <v>45773</v>
@@ -2040,30 +2040,30 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24">
         <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H24">
         <v>45774</v>
@@ -2072,21 +2072,21 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
         <v>85</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -2095,7 +2095,7 @@
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25">
         <v>45772</v>
@@ -2104,21 +2104,21 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
         <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -2127,7 +2127,7 @@
         <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26">
         <v>45772</v>
@@ -2136,21 +2136,21 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
         <v>89</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
@@ -2159,7 +2159,7 @@
         <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H27">
         <v>45774</v>
@@ -2168,21 +2168,21 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
         <v>91</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>92</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
@@ -2191,7 +2191,7 @@
         <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H28">
         <v>45775</v>
@@ -2200,12 +2200,12 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -2214,10 +2214,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -2232,27 +2232,27 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30">
         <v>50</v>
@@ -2267,30 +2267,30 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
@@ -2302,33 +2302,33 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H32">
         <v>45774</v>
@@ -2337,24 +2337,24 @@
         <v>45775.063888888893</v>
       </c>
       <c r="P32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33">
         <v>20</v>
@@ -2369,10 +2369,10 @@
         <v>45775.063888888886</v>
       </c>
       <c r="P33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/tareas.xlsx
+++ b/data/tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS JM 2024\TURGAS\06-01-25-jm-cronograma planta mqta\21-04-25-App de Gestión de Turnos, Tareas y Reporte de Avance\estructura_app_gestion_turnos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED442523-0075-4CDF-A288-A2A5AA9CF9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D46F3A-7A5C-4A4D-9CC7-7D13BA530EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{333E9848-0393-432F-B733-76AFFF42A1D3}"/>
   </bookViews>
@@ -842,12 +842,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1205,12 +1209,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CACD59-3760-4A1B-8CE6-99790B954501}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="11.42578125" style="4"/>
     <col min="15" max="15" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1236,7 +1241,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1289,7 +1294,7 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>45772</v>
       </c>
       <c r="I2" s="2">
@@ -1333,7 +1338,7 @@
       <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>45770</v>
       </c>
       <c r="J3" s="2">
@@ -1383,7 +1388,7 @@
       <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>45768</v>
       </c>
       <c r="O4" s="2">
@@ -1415,7 +1420,7 @@
       <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>45766</v>
       </c>
       <c r="N5" t="s">
@@ -1450,7 +1455,7 @@
       <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>45764</v>
       </c>
       <c r="O6" s="2">
@@ -1482,7 +1487,7 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>45762</v>
       </c>
       <c r="O7" s="2">
@@ -1514,7 +1519,7 @@
       <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>45760</v>
       </c>
       <c r="N8" t="s">
@@ -1549,7 +1554,7 @@
       <c r="G9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>45758</v>
       </c>
       <c r="O9" s="2">
@@ -1581,7 +1586,7 @@
       <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>45756</v>
       </c>
       <c r="O10" s="2">
@@ -1613,7 +1618,7 @@
       <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>45754</v>
       </c>
       <c r="N11" t="s">
@@ -1648,7 +1653,7 @@
       <c r="G12" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>45767</v>
       </c>
       <c r="N12" t="s">
@@ -1683,7 +1688,7 @@
       <c r="G13" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>45762</v>
       </c>
       <c r="O13" s="2">
@@ -1715,7 +1720,7 @@
       <c r="G14" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>45762</v>
       </c>
       <c r="I14" s="2">
@@ -1753,7 +1758,7 @@
       <c r="G15" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>45767</v>
       </c>
       <c r="N15" t="s">
@@ -1788,7 +1793,7 @@
       <c r="G16" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>45762</v>
       </c>
       <c r="O16" s="2">
@@ -1820,7 +1825,7 @@
       <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
         <v>45762</v>
       </c>
       <c r="I17" s="2">
@@ -1858,7 +1863,7 @@
       <c r="G18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>45767</v>
       </c>
       <c r="N18" t="s">
@@ -1893,7 +1898,7 @@
       <c r="G19" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>45762</v>
       </c>
       <c r="O19" s="2">
@@ -1925,7 +1930,7 @@
       <c r="G20" t="s">
         <v>28</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>45774</v>
       </c>
       <c r="I20">
@@ -1963,7 +1968,7 @@
       <c r="G21" t="s">
         <v>28</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>45762</v>
       </c>
       <c r="N21" t="s">
@@ -1998,7 +2003,7 @@
       <c r="G22" t="s">
         <v>28</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>45773</v>
       </c>
       <c r="N22" t="s">
@@ -2033,7 +2038,7 @@
       <c r="G23" t="s">
         <v>28</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>45773</v>
       </c>
       <c r="O23" s="2">
@@ -2065,7 +2070,7 @@
       <c r="G24" t="s">
         <v>28</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>45774</v>
       </c>
       <c r="O24" s="2">
@@ -2097,7 +2102,7 @@
       <c r="G25" t="s">
         <v>28</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>45772</v>
       </c>
       <c r="O25" s="2">
@@ -2129,7 +2134,7 @@
       <c r="G26" t="s">
         <v>28</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>45772</v>
       </c>
       <c r="O26" s="2">
@@ -2161,7 +2166,7 @@
       <c r="G27" t="s">
         <v>28</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>45774</v>
       </c>
       <c r="O27" s="2">
@@ -2193,7 +2198,7 @@
       <c r="G28" t="s">
         <v>28</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <v>45775</v>
       </c>
       <c r="O28" s="2">
@@ -2225,7 +2230,7 @@
       <c r="G29" t="s">
         <v>19</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>45775</v>
       </c>
       <c r="O29" s="2">
@@ -2260,7 +2265,7 @@
       <c r="G30" t="s">
         <v>19</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <v>45774</v>
       </c>
       <c r="O30" s="2">
@@ -2295,7 +2300,7 @@
       <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <v>45774</v>
       </c>
       <c r="O31" s="2">
@@ -2330,7 +2335,7 @@
       <c r="G32" t="s">
         <v>28</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
         <v>45774</v>
       </c>
       <c r="O32" s="2">
@@ -2362,7 +2367,7 @@
       <c r="G33" t="s">
         <v>19</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <v>45774</v>
       </c>
       <c r="O33" s="2">

--- a/data/tareas.xlsx
+++ b/data/tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS JM 2024\TURGAS\06-01-25-jm-cronograma planta mqta\21-04-25-App de Gestión de Turnos, Tareas y Reporte de Avance\estructura_app_gestion_turnos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D46F3A-7A5C-4A4D-9CC7-7D13BA530EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29422A1-EB57-4569-8A88-EEA943CF127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{333E9848-0393-432F-B733-76AFFF42A1D3}"/>
   </bookViews>
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CACD59-3760-4A1B-8CE6-99790B954501}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,7 +2068,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H24" s="4">
         <v>45774</v>
@@ -2167,7 +2167,7 @@
         <v>28</v>
       </c>
       <c r="H27" s="4">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="O27" s="2">
         <v>45775.063888888893</v>
@@ -2199,7 +2199,7 @@
         <v>28</v>
       </c>
       <c r="H28" s="4">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="O28" s="2">
         <v>45775.063888888893</v>

--- a/data/tareas.xlsx
+++ b/data/tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS JM 2024\TURGAS\06-01-25-jm-cronograma planta mqta\21-04-25-App de Gestión de Turnos, Tareas y Reporte de Avance\estructura_app_gestion_turnos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29422A1-EB57-4569-8A88-EEA943CF127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8CB58A-CD6F-4313-BEB8-64E3A33E31CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{333E9848-0393-432F-B733-76AFFF42A1D3}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>Recuperacion de Trailer de 3 ejes, EDS Caldas Viejo</t>
+  </si>
+  <si>
+    <t>Vacios plta mqta-protocolo de prueba hermeticidad hidrociclon 1-mqta</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CACD59-3760-4A1B-8CE6-99790B954501}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,19 +1995,19 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="4">
-        <v>45773</v>
+        <v>45774</v>
       </c>
       <c r="N22" t="s">
         <v>23</v>
@@ -2030,10 +2033,10 @@
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -2260,7 +2263,7 @@
         <v>27</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>

--- a/data/tareas.xlsx
+++ b/data/tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS JM 2024\TURGAS\06-01-25-jm-cronograma planta mqta\21-04-25-App de Gestión de Turnos, Tareas y Reporte de Avance\estructura_app_gestion_turnos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8CB58A-CD6F-4313-BEB8-64E3A33E31CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4147A7EF-AD8A-49E5-A4FF-919985A73BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{333E9848-0393-432F-B733-76AFFF42A1D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{333E9848-0393-432F-B733-76AFFF42A1D3}"/>
   </bookViews>
   <sheets>
     <sheet name="tareas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -322,9 +322,6 @@
     <t>T032</t>
   </si>
   <si>
-    <t>T032 -T028</t>
-  </si>
-  <si>
     <t>Ubicacion</t>
   </si>
   <si>
@@ -337,7 +334,19 @@
     <t>Recuperacion de Trailer de 3 ejes, EDS Caldas Viejo</t>
   </si>
   <si>
-    <t>Vacios plta mqta-protocolo de prueba hermeticidad hidrociclon 1-mqta</t>
+    <t>Vacios plta mqta-protocolo de prueba hermeticidad hidrociclon 1-adecuacion valvula vacio bomba-mqta</t>
+  </si>
+  <si>
+    <t>poner en servicio el Hidrociclón 1,  haga la prueba de hermeticidad, proceda a realizar la prueba de vacío.</t>
+  </si>
+  <si>
+    <t>T033</t>
+  </si>
+  <si>
+    <t>T034</t>
+  </si>
+  <si>
+    <t>poner en servicio el Hidrociclón 1, flushig del sistema -limpieza de filtro interno.</t>
   </si>
 </sst>
 </file>
@@ -347,7 +356,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +496,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1210,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CACD59-3760-4A1B-8CE6-99790B954501}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1254,7 +1269,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -1266,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -1330,7 +1345,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1995,7 +2010,7 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -2074,7 +2089,7 @@
         <v>19</v>
       </c>
       <c r="H24" s="4">
-        <v>45774</v>
+        <v>45775</v>
       </c>
       <c r="O24" s="2">
         <v>45775.063888888893</v>
@@ -2234,7 +2249,7 @@
         <v>19</v>
       </c>
       <c r="H29" s="4">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="O29" s="2">
         <v>45775.063888888893</v>
@@ -2269,7 +2284,7 @@
         <v>19</v>
       </c>
       <c r="H30" s="4">
-        <v>45774</v>
+        <v>45775</v>
       </c>
       <c r="O30" s="2">
         <v>45775.063888888893</v>
@@ -2304,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="4">
-        <v>45774</v>
+        <v>45775</v>
       </c>
       <c r="O31" s="2">
         <v>45775.063888888893</v>
@@ -2339,7 +2354,7 @@
         <v>28</v>
       </c>
       <c r="H32" s="4">
-        <v>45774</v>
+        <v>45775</v>
       </c>
       <c r="O32" s="2">
         <v>45775.063888888893</v>
@@ -2348,7 +2363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -2371,7 +2386,7 @@
         <v>19</v>
       </c>
       <c r="H33" s="4">
-        <v>45774</v>
+        <v>45775</v>
       </c>
       <c r="O33" s="2">
         <v>45775.063888888886</v>
@@ -2379,11 +2394,67 @@
       <c r="P33" t="s">
         <v>33</v>
       </c>
-      <c r="Q33" t="s">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
         <v>100</v>
       </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="4">
+        <v>45772</v>
+      </c>
+      <c r="O34" s="2">
+        <v>45775.063888888886</v>
+      </c>
+      <c r="P34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="4">
+        <v>45775</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>